--- a/medicine/Mort/Cimetière_de_Cap-Rouge/Cimetière_de_Cap-Rouge.xlsx
+++ b/medicine/Mort/Cimetière_de_Cap-Rouge/Cimetière_de_Cap-Rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cap-Rouge</t>
+          <t>Cimetière_de_Cap-Rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Cap-Rouge est situé dans l'arrondissement Sainte-Foy-Sillery-Cap-Rouge de la ville de Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cap-Rouge</t>
+          <t>Cimetière_de_Cap-Rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’église Saint-Félix-de-Cap-Rouge est construite en 1859 mais ce n’est qu’en 1862 que la paroisse est érigée canoniquement[1],[2]. Un plan datant de décembre 1860 atteste l'existence du cimetière, situé derrière l’église[3].
-Au centre du cimetière s’élève le monument de la famille de Nicholas Flood, maître de port de Cap-Rouge jusqu’au début du XXe siècle. Né en 1831 à Wexford en Irlande, il est décédé à Cap-Rouge en 1912[4].
-En 2006, le conseil de Fabrique de la paroisse Saint-Félix fait construire un columbarium[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’église Saint-Félix-de-Cap-Rouge est construite en 1859 mais ce n’est qu’en 1862 que la paroisse est érigée canoniquement,. Un plan datant de décembre 1860 atteste l'existence du cimetière, situé derrière l’église.
+Au centre du cimetière s’élève le monument de la famille de Nicholas Flood, maître de port de Cap-Rouge jusqu’au début du XXe siècle. Né en 1831 à Wexford en Irlande, il est décédé à Cap-Rouge en 1912.
+En 2006, le conseil de Fabrique de la paroisse Saint-Félix fait construire un columbarium.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cap-Rouge</t>
+          <t>Cimetière_de_Cap-Rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Le calvaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un calvaire est situé à l’extrémité sud-ouest du cimetière. Il est offert à la Fabrique en 1943 par Antoine Jobin, fils de l’ancien maire de Cap-Rouge, Joseph Jobin (1912-1914)[4]. L’œuvre est celle du sculpteur Lauréat Vallière. Un titulus affiche l’expression Jésus le Nazaréen, roi des Juifs en trois langues : hébraïque, grecque et latine[5].
-En 1973, le calvaire est restauré par Jean Simard, ethnologue et professeur en Arts et traditions populaires à l’Université Laval.  La même année, un entrepreneur construit l’édicule actuel qui le protège[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un calvaire est situé à l’extrémité sud-ouest du cimetière. Il est offert à la Fabrique en 1943 par Antoine Jobin, fils de l’ancien maire de Cap-Rouge, Joseph Jobin (1912-1914). L’œuvre est celle du sculpteur Lauréat Vallière. Un titulus affiche l’expression Jésus le Nazaréen, roi des Juifs en trois langues : hébraïque, grecque et latine.
+En 1973, le calvaire est restauré par Jean Simard, ethnologue et professeur en Arts et traditions populaires à l’Université Laval.  La même année, un entrepreneur construit l’édicule actuel qui le protège.
 </t>
         </is>
       </c>
